--- a/outputs/HONULULU1.xlsx
+++ b/outputs/HONULULU1.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page explicitly directs users to read the syllabus as an important first step in starting the course. This aligns with Abi's motivations to accomplish tasks effectively and her comprehensive information processing style, as she prefers to gather all necessary information before proceeding. Hence, she will consider finding the syllabus as a critical step.</t>
+Why: The page explicitly mentions that to begin the course, Abi should click on "Syllabus" in the left pane and read through it carefully. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the syllabus contains important information necessary to start the course.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides clear instructions in the introductory text to click on "Syllabus" in the left pane to begin the course. This direct instruction aligns with Abi's motivations to accomplish tasks effectively and her comprehensive information processing style, which relies on clear, step-by-step guidance.</t>
+Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the syllabus is an essential part of starting the course. The instruction is straightforward and easy to follow, making it clear what Abi needs to do at this step.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Upon clicking "Syllabus," Abi is directed to a page that clearly labels "Course Syllabus" and presents detailed information, including a weekly schedule. This immediate feedback confirms that Abi has made the correct action and is progressing toward her goal. The comprehensive syllabus information aligns well with Abi's information processing style, as she prefers detailed data to understand the course structure fully.</t>
+Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the weekly schedule and other relevant course materials. This confirms to Abi that they have done the right thing and are making progress toward their goal. The page provides comprehensive information, aligning with Abi's motivation to accomplish tasks and their comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Reading the syllabus is a logical next step after finding it, as it provides detailed information about the course structure, expectations, and schedule. This aligns with Abi’s motivation to complete her tasks effectively and her comprehensive information processing style. She understands that reading the syllabus is critical for gaining a complete understanding of the course requirements and timeline.</t>
+Why: Reading the syllabus is a crucial step in understanding the course structure, requirements, and schedule. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the syllabus provides detailed information necessary to get started with the course.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists "Syllabus (PDF)" as an option, making it evident that clicking this link will open the syllabus in PDF format. This aligns with Abi’s motivation to read the syllabus and her preference for comprehensive information processing. The label is straightforward, and Abi will know that clicking it is the next step to read the syllabus in detail.</t>
+Why: The page provides a clear link labeled "Syllabus (PDF)" which indicates that clicking it will open the syllabus in PDF format. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as they are looking for detailed information about the course. The label is straightforward and indicates exactly what Abi will get by clicking it.</t>
         </is>
       </c>
     </row>
@@ -471,16 +471,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Syllabus (PDF)," Abi lands on a comprehensive document detailing the course syllabus. The PDF includes essential information such as course rules, response times, course content, learning outcomes, and tools. This detailed document aligns with Abi’s motivations to understand the course fully and her preference for comprehensive information processing. Abi will recognize that she has accessed the right document and is making progress toward her goal.</t>
+Why: After clicking on "Syllabus (PDF)," Abi lands on a page that contains the detailed syllabus for the course. This includes essential information such as course rules, response times, course content, learning outcomes, and course tools. This comprehensive information aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, confirming that they did the right thing and are making progress toward their goal.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus PDF includes a "Course content" section that lists "modules" among other topics. Given Abi's motivation to understand the course thoroughly and her comprehensive information processing style, she will recognize the importance of reading about the modules to understand the structure and content of the course. This step is logically aligned with getting started in the course.</t>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The current page is the syllabus in PDF format, which provides a comprehensive overview of the course, including rules, response times, course content, learning outcomes, and tools. While this information is crucial for understanding the course, it does not explicitly direct Abi to read information under "Modules" as a next step. Abi might not immediately think of looking under "Modules" from this page, as their current focus is on understanding the syllabus content.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: While the syllabus mentions "modules," it does not provide explicit instructions on where to find additional information about them or what "Modules" in the navigation pane entails. Given Abi's low confidence in unfamiliar computing tasks and her preference for clear, step-by-step instructions, she may not know that clicking on "Modules" in the navigation pane is the next step to find detailed module information. The lack of explicit guidance may make her hesitant to proceed.</t>
+Why: The current page is the syllabus in PDF format, which does not provide explicit instructions or a clear indication that Abi should click on "Modules" next. Given Abi's low confidence in doing unfamiliar computing tasks and preference for process-oriented learning, they might not know to click on "Modules" without explicit guidance. The page does not direct Abi to the "Modules" section, making it unclear what to do next.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Modules," Abi will land on a detailed page that lists all the course modules, each with specific topics, assignments, quizzes, and other resources. This aligns with Abi's motivations to understand the course structure and her comprehensive information processing style. The page provides all the necessary information about the modules in an organized manner, confirming that Abi is making progress toward her goal of getting started with the course.</t>
+Why: After clicking on "Modules," Abi lands on a page that lists all the course modules in a structured and detailed manner. This page provides comprehensive information about each module, including lessons, assignments, quizzes, and other relevant materials. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, confirming that they did the right thing and are making progress toward their goal. The detailed layout ensures that Abi gets all the information they need to get started with the course.</t>
         </is>
       </c>
     </row>

--- a/outputs/HONULULU1.xlsx
+++ b/outputs/HONULULU1.xlsx
@@ -424,169 +424,156 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Yes, Abi would likely have thought of finding the Syllabus as a necessary step because:
-1. The instructions on the page explicitly state "To begin the course please click on Syllabus" and emphasize reading through it carefully.
-2. Given Abi's learning style (comprehensive information gatherer) and her tendency to be risk-averse, she would naturally want to read the syllabus first to:
-   - Understand the course requirements completely
-   - Avoid making mistakes
-   - Get all the important information before proceeding
-3. The page clearly shows the Syllabus link in both:
-   - The left navigation panel
-   - A direct link in the main content area
-   - A button in the "Start Here" section
-4. The text explicitly mentions that there's "a lot of important information" in the syllabus, which would appeal to Abi's methodical approach to learning and desire to have comprehensive information before proceeding.
-5. Given that the syllabus is presented as a required first step (with the note about needing to complete a syllabus quiz to access future modules), this would align with Abi's process-oriented nature and preference for following clear instructions.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Motivations
+3. Learning Style
+Why: ABI will consider finding the syllabus as an important first step because:
+- The page clearly states "To begin the course please click on Syllabus" which aligns with her process-oriented learning style
+- The text explicitly mentions that the syllabus contains "a lot of important information" which appeals to her comprehensive information processing style
+- As ABI is task-focused and wants to accomplish her course goals properly, finding the syllabus aligns with her motivations to understand the course requirements thoroughly
+- The instruction is straightforward and provides clear direction about what to do first, which makes ABI confident about this being the right first step</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yes, Abi would likely know what to do at this step because:
-1. The instructions are very clear and explicit - the text directly states "To begin the course please click on Syllabus in the left pane..."
-2. The Syllabus link is visually apparent in the left navigation menu
-3. For someone like Abi who:
-- Prefers comprehensive information
-- Likes to be thorough
-- Tends to process information step-by-step
-- Values clear instructions
-The instruction is straightforward and matches their learning style because:
-- It clearly states what to do first
-- Explains why reading the syllabus is important ("there's a lot of important information there")
-- Provides the next steps in sequence
-- The Syllabus link is easily visible in the left menu
-Additionally, this aligns with Abi's methodical approach to learning new systems, as reading the syllabus first provides a proper foundation before moving forward with the course material.</t>
+          <t>Answer: YES
+Facets:
+1. Learning Style
+2. Information Processing Style
+3. Computer Self-Efficacy
+Why: ABI will know what to do because:
+- The instruction is explicitly stated in a step-by-step manner: "To begin the course please click on Syllabus" which aligns with her process-oriented learning style
+- The word "Syllabus" appears both as a clickable link in the text and as a menu item in the left pane, making it easy to identify
+- The instruction is clear and straightforward, not requiring any technical knowledge or risky exploration, which helps with her low computer self-efficacy
+- The page provides comprehensive information about what to expect after clicking (reading through important information), which aligns with her information processing style</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Yes, Abi will know they did the right thing and is making progress toward their goal for several reasons:
-1. Clear Visual Confirmation:
-- After clicking "Syllabus" in the left navigation menu, a comprehensive course syllabus page appears
-- The page title clearly shows "Course Syllabus"
-- There's a detailed weekly schedule showing all course topics and deliverables
-- The page includes important links like "Syllabus &amp; Schedule", "Tools", and "Course Introduction"
-2. Comprehensive Information:
-- The syllabus shows a complete 10-week schedule
-- Each week's readings and projects are clearly listed
-- Assignment weightings are displayed (70% Assignments, 30% Quizzes)
-- Important policies and due dates are included
-3. Organization:
-- The information is well-structured in a table format
-- Topics are organized chronologically
-- Different components (readings, projects) are clearly distinguished
-The page provides all the essential course information Abi would need, confirming they've reached the right destination. The clear layout and comprehensive content would reassure someone like Abi, who tends to be thorough and likes to confirm they're on the right track.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: ABI will know she's on the right track because:
+- The page title clearly shows "Course Syllabus" confirming she reached the correct destination
+- The page provides a comprehensive layout with clear sections (Syllabus &amp; Schedule, Tools, Course Introduction, etc.) which aligns with her comprehensive information processing style
+- Multiple formats of the syllabus are available (PDF, downloadable versions) which gives her options to process the information in her preferred way
+- The page includes a detailed weekly schedule and course summary, providing the structured information she needs, matching her process-oriented learning style
+- The presence of clear course-related information (like assignment weights, schedule) confirms she's making progress toward understanding course requirements
+- The page appears official and academic, which will make her feel confident she's in the right place, supporting her need for confidence due to low computer self-efficacy</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yes, reading the syllabus would be a very comprehensive first step for anyone starting a course, including Abi. Given Abi's process-oriented and information gathering characteristics from the GenderMag persona, she would likely consider reading the syllabus as an essential initial step because:
-1. The syllabus provides a detailed weekly schedule of all course components
-2. It clearly shows the course structure with readings and projects for each week
-3. It includes important information about assignments and their weightings (70% assignments, 30% quizzes)
-4. It contains critical deadlines and due dates
-5. The syllabus lists all required deliverables and their timing
-Abi's methodical approach and preference for gathering comprehensive information before proceeding would make the syllabus a natural starting point. She would appreciate having all the course expectations, deadlines, and requirements laid out clearly, allowing her to plan her work accordingly and understand exactly what she needs to do to succeed in the course.
-This aligns with Abi's learning style as she likes to be thorough and have a complete understanding of what's expected before moving forward with tasks.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Motivations
+Why: ABI will consider reading the syllabus as an essential step because:
+- Her comprehensive information processing style aligns with the need to thoroughly understand course requirements and structure
+- The page presents information in a structured, organized manner (weekly schedule, course summary, clear sections) which matches her process-oriented learning style
+- The syllabus contains critical course information (assignments, weights, schedule) that ABI needs to understand to successfully complete the course, which aligns with her motivation to accomplish tasks properly
+- Multiple formats of the syllabus (PDF, downloadable versions) allow her to read and process the information in a way that makes her comfortable
+- The detailed weekly schedule provides a clear roadmap of what to expect, which helps reduce uncertainty and risk, making her more confident about proceeding with the course</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Yes, Abi should know what to do at this step because:
-1. The Syllabus (PDF) link is clearly visible on the page and is formatted as a clickable link.
-2. The link has a clear label "Syllabus (PDF)" with recognizable PDF icons next to it, indicating it will open a PDF document.
-3. As someone who tends to be hesitant and likes to gather information before proceeding, Abi would likely appreciate:
-   - The multiple ways to access the syllabus (both PDF and online format)
-   - The clear labeling of the document type
-   - The fact that the link is located in a logical place under the "Syllabus &amp; Schedule" section
-4. Given Abi's comprehensive information processing style, clicking on the syllabus PDF would align with her need to thoroughly understand course requirements and expectations.
-5. The page layout makes it easy to identify this as the right action, as it's positioned prominently under the course navigation and syllabus section.
-The interface provides enough context and clear visual cues that would help Abi feel confident about clicking on the Syllabus PDF link to access the course information she needs.</t>
+          <t>Answer: YES
+Facets:
+1. Learning Style
+2. Computer Self-Efficacy
+3. Information Processing Style
+Why: ABI will know what to do because:
+- The "Syllabus (PDF)" link is clearly visible and labeled with familiar file format (PDF) which she likely recognizes from previous experience
+- There are clear download icons (↓) next to the PDF link, which is a common and familiar interface element, helping with her low computer self-efficacy
+- The page provides multiple ways to access the syllabus (PDF, quiz version, schedule) which allows her to choose the most comfortable format, aligning with her process-oriented learning style
+- The link is presented in a structured context under the Course Syllabus heading, which helps her understand that this is a legitimate way to access the course information, matching her comprehensive information processing style
+- The presence of multiple syllabus-related links doesn't create confusion as they are clearly labeled with their specific purposes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Yes, Abi will know they did the right thing and are making progress toward their goal for several reasons:
-1. The image shows a clear course syllabus (CS 162 - Introduction to Computer Science II) with all essential information laid out, including:
-- Course credits
-- Instructor contact information
-- Required textbooks
-- Course description
-- Course content
-- Learning outcomes
-2. The syllabus provides "Two fundamental rules" that clearly state student responsibilities regarding course information and announcements.
-3. Abi is detail-oriented and likes to be thorough, so seeing this comprehensive syllabus document will reassure them that they're accessing the correct information needed to get started with the course.
-4. The syllabus contains specific information about:
-- Response times
-- Course tools
-- Prerequisites
-- Course content modules
-- Learning outcomes
-Given Abi's learning style and need for comprehensive information, having access to this detailed syllabus will confirm they're on the right track and have found the foundational information needed to begin the course successfully.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Motivations
+Why: ABI will know she's on the right track because:
+- The PDF opens with a clear title "CS 162 - Introduction to Computer Science II" confirming she's viewing the correct course syllabus
+- The document is structured in a clear, formal format with distinct sections (Course Content, Learning Outcomes, etc.) which aligns with her comprehensive information processing style
+- The content provides detailed information about course requirements, policies, and expectations in a systematic way, matching her process-oriented learning style
+- Important course information like instructor contacts, prerequisites, and learning outcomes are clearly presented, helping her understand what she needs to do to succeed in the course
+- The document contains the fundamental rules and course tools sections which helps satisfy her motivation to understand course requirements thoroughly
+- The PDF format allows her to save and refer back to the document later, which aligns with her preference for familiar, reliable methods</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Yes, reviewing the Modules section would be a logical step for a student wanting to get started with the course. The Modules section lists key programming concepts that will be covered, such as:
-- modules
-- exception handling
-- unit testing
-- inheritance, composition, polymorphism 
-- searching, sorting, algorithm analysis
-- file handling
-- data structures like linked lists, stacks, queues
-- generators
-- recursive functions
-- decorators
-For Abi, who is described as wanting to get started with the course, looking at this module list would give her a good overview of what topics she'll need to learn and help her understand the course scope. This would align well with the goal of getting started, as it provides a roadmap of the material to be covered. Additionally, since Abi tends to be comprehensive in her learning style, reviewing the full list of modules would help her form a complete picture of the course content.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Motivations
+3. Learning Style
+Why: ABI will not consider reading Modules section as the next step because:
+- Her comprehensive information processing style would lead her to first thoroughly read and understand the entire syllabus document that she just opened
+- The syllabus contains critical foundational information like "Two fundamental rules" and "Response times" that she would want to understand first before moving to Modules
+- Her process-oriented learning style would make her want to complete reading the current document systematically rather than jumping to a different section (Modules)
+- Her motivation to complete tasks properly would make her focus on understanding the basic course requirements and policies first, which are detailed in the syllabus
+- The syllabus itself doesn't explicitly direct her to look at Modules next, and given her preference for clear instructions, she would be hesitant to make that jump without being specifically guided to do so</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Looking at this course syllabus image, yes, Abi will know what to do at this step because:
-1. The "modules" section is clearly visible in the syllabus as a bullet point list of topics, including:
-- modules
-- exception handling
-- unit testing
-- inheritance, composition, polymorphism
-- searching, sorting, algorithm analysis
-- file handling
-- and several other programming concepts
-2. The section is easy to find and scan as it's formatted in a simple bullet point list format.
-3. Given that Abi is typically thorough and likes to gather comprehensive information before proceeding, this clearly laid out list of module topics will help her understand what she'll be learning in the course.
-4. The content is presented in a straightforward, hierarchical manner that aligns with Abi's methodical learning style and preference for having complete information before moving forward.
-So Abi should be able to easily locate and read through the modules section to understand the course content she'll be covering.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Learning Style
+3. Attitude Toward Risk
+4. Information Processing Style
+Why: ABI will not know what to do at this step because:
+- The PDF document only shows "modules" as a bullet point in the course content section without any clickable links or clear instructions on how to access it
+- Her low computer self-efficacy means she won't feel confident about figuring out how to navigate from a PDF document to the Modules section without explicit guidance
+- Her process-oriented learning style means she expects clear step-by-step instructions, which are not provided here about how to access Modules
+- Her risk-averse attitude means she won't want to experiment or guess how to access Modules when there's no clear indication
+- Her comprehensive information processing style would make her want clear information about how to access Modules, which isn't provided in the PDF
+- She would likely feel stuck as there's no obvious way to click or interact with the "modules" bullet point in the PDF document</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Looking at this image, clicking on "Modules" would be an effective action. The image shows a course interface with an expanded Modules section containing multiple learning units or modules organized in a clear hierarchical structure. Each module appears to have subsections with lectures, videos, and assignments.
-The user would know they did the right thing because:
-1. The Modules section expands to show a detailed course outline
-2. Clear visual feedback is provided through the expanded view
-3. The content is well-organized with numbered modules and subsections
-4. They can see all course materials and progression path
-This view would give the user comprehensive information about:
-- Course structure
-- Available learning materials
-- Required assignments
-- Course progression
-- Different types of content (videos, lectures, exercises)
-So yes, clicking Modules would provide clear confirmation of success and give access to all the course information needed to get started. The expanded view makes it obvious that this is the main course content area, helping confirm they're on the right path toward their goal of beginning the course.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: ABI will know she's on the right track because:
+- The page shows a clear, hierarchical structure of modules with numbered sections and subsections, which aligns with her process-oriented learning style
+- The content is organized systematically with clear headings and subheadings (Module 1, Module 2, etc.), making it easy for her to process information comprehensively
+- Each module contains specific sections like "Explanation," "Video Demo," and "Assignment" which gives her a clear understanding of what to expect and how to proceed
+- The structured layout with expandable sections (indicated by arrows) provides a familiar and non-threatening interface, supporting her low computer self-efficacy
+- The page clearly shows course progression from start to finish, helping her understand how the course will unfold
+- The content matches what she saw in the syllabus PDF earlier, confirming she's in the right place and making progress in understanding the course structure</t>
         </is>
       </c>
     </row>

--- a/outputs/HONULULU1.xlsx
+++ b/outputs/HONULULU1.xlsx
@@ -447,27 +447,28 @@
 3. Computer Self-Efficacy
 Why: ABI will know what to do because:
 - The instruction is explicitly stated in a step-by-step manner: "To begin the course please click on Syllabus" which aligns with her process-oriented learning style
-- The word "Syllabus" appears both as a clickable link in the text and as a menu item in the left pane, making it easy to identify
-- The instruction is clear and straightforward, not requiring any technical knowledge or risky exploration, which helps with her low computer self-efficacy
-- The page provides comprehensive information about what to expect after clicking (reading through important information), which aligns with her information processing style</t>
+- The word "Syllabus" appears both in the instruction text and is clearly visible in the left navigation pane, making it easy to locate
+- The instruction is straightforward and doesn't require any technical knowledge or risky exploration, which helps with her low computer self-efficacy
+- The text provides clear context about why clicking the syllabus is important ("there's a lot of important information there"), which supports her comprehensive information processing style</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: YES
+          <t>Answer: NO
 Facets:
 1. Information Processing Style
-2. Learning Style
-3. Computer Self-Efficacy
-Why: ABI will know she's on the right track because:
-- The page title clearly shows "Course Syllabus" confirming she reached the correct destination
-- The page provides a comprehensive layout with clear sections (Syllabus &amp; Schedule, Tools, Course Introduction, etc.) which aligns with her comprehensive information processing style
-- Multiple formats of the syllabus are available (PDF, downloadable versions) which gives her options to process the information in her preferred way
-- The page includes a detailed weekly schedule and course summary, providing the structured information she needs, matching her process-oriented learning style
-- The presence of clear course-related information (like assignment weights, schedule) confirms she's making progress toward understanding course requirements
-- The page appears official and academic, which will make her feel confident she's in the right place, supporting her need for confidence due to low computer self-efficacy</t>
+2. Computer Self-Efficacy
+3. Attitude toward Risk
+4. None of the Above (Information Overload)
+Why: ABI will struggle to confirm she's on the right track because:
+- The page presents multiple options (Syllabus &amp; Schedule, Tools, Course Introduction, etc.) without clear guidance on which to look at first, which may overwhelm her comprehensive information processing style
+- There are multiple PDF links and sections which could confuse her about which contains the essential information she needs
+- The weekly schedule table presents a lot of complex information at once with technical terms and multiple components, which could overwhelm her
+- Due to her low computer self-efficacy, seeing multiple options and formats (PDFs, links, tables) might make her unsure if she's accessing the information in the right way
+- The page doesn't provide clear confirmation that this is where she should start reading or which specific section contains the essential starting information
+- The amount of information presented at once (calendar, assignments weights, weekly schedule) could cause information overload, making it difficult for her to process and confirm she's on the right track</t>
         </is>
       </c>
     </row>
@@ -477,31 +478,33 @@
           <t>Answer: YES
 Facets:
 1. Information Processing Style
-2. Learning Style
-3. Motivations
-Why: ABI will consider reading the syllabus as an essential step because:
-- Her comprehensive information processing style aligns with the need to thoroughly understand course requirements and structure
-- The page presents information in a structured, organized manner (weekly schedule, course summary, clear sections) which matches her process-oriented learning style
-- The syllabus contains critical course information (assignments, weights, schedule) that ABI needs to understand to successfully complete the course, which aligns with her motivation to accomplish tasks properly
-- Multiple formats of the syllabus (PDF, downloadable versions) allow her to read and process the information in a way that makes her comfortable
-- The detailed weekly schedule provides a clear roadmap of what to expect, which helps reduce uncertainty and risk, making her more confident about proceeding with the course</t>
+2. Motivations
+3. Learning Style
+Why: ABI will consider reading the syllabus as an important step because:
+- As someone who prefers comprehensive information processing, she recognizes that the syllabus contains essential course information like weekly schedules, assignments, and grading details
+- The syllabus aligns with her process-oriented learning style as it provides a structured overview of the entire course
+- Her motivation to complete tasks properly means she'll want to understand all course requirements and expectations thoroughly
+- The page clearly presents multiple ways to access the syllabus information (PDF downloads, online view) which gives her options to read it in her preferred format
+- The presence of a detailed weekly schedule and course summary indicates this contains the foundational information she needs to understand the course structure, which aligns with her need for thorough understanding before proceeding</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets:
-1. Learning Style
-2. Computer Self-Efficacy
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Attitude toward Risk
 3. Information Processing Style
-Why: ABI will know what to do because:
-- The "Syllabus (PDF)" link is clearly visible and labeled with familiar file format (PDF) which she likely recognizes from previous experience
-- There are clear download icons (↓) next to the PDF link, which is a common and familiar interface element, helping with her low computer self-efficacy
-- The page provides multiple ways to access the syllabus (PDF, quiz version, schedule) which allows her to choose the most comfortable format, aligning with her process-oriented learning style
-- The link is presented in a structured context under the Course Syllabus heading, which helps her understand that this is a legitimate way to access the course information, matching her comprehensive information processing style
-- The presence of multiple syllabus-related links doesn't create confusion as they are clearly labeled with their specific purposes</t>
+4. None of the Above (Multiple Options Confusion)
+Why: ABI will struggle to know what to do because:
+- There are multiple ways to access the syllabus content (Syllabus &amp; Schedule tab, Syllabus PDF, Syllabus quiz), which could create confusion about which one to choose
+- Due to her low computer self-efficacy, seeing multiple PDF download options (with different icons for download and view) might make her unsure which is the correct one to click
+- Her risk-averse nature means she'll be hesitant to randomly choose between the different syllabus options without clear indication of which is the primary or recommended version
+- The page doesn't provide clear guidance on which version of the syllabus (PDF vs online view) is preferred or contains the most complete information
+- Her comprehensive information processing style means she'll want to be certain she's accessing the complete syllabus information, but it's unclear which option provides this
+- The presence of multiple links and icons (↓, ⤢) without clear explanation of their functions could cause uncertainty about which action to take</t>
         </is>
       </c>
     </row>
@@ -514,12 +517,18 @@
 2. Learning Style
 3. Motivations
 Why: ABI will know she's on the right track because:
-- The PDF opens with a clear title "CS 162 - Introduction to Computer Science II" confirming she's viewing the correct course syllabus
-- The document is structured in a clear, formal format with distinct sections (Course Content, Learning Outcomes, etc.) which aligns with her comprehensive information processing style
-- The content provides detailed information about course requirements, policies, and expectations in a systematic way, matching her process-oriented learning style
-- Important course information like instructor contacts, prerequisites, and learning outcomes are clearly presented, helping her understand what she needs to do to succeed in the course
-- The document contains the fundamental rules and course tools sections which helps satisfy her motivation to understand course requirements thoroughly
-- The PDF format allows her to save and refer back to the document later, which aligns with her preference for familiar, reliable methods</t>
+- The PDF clearly shows it's the course syllabus with a clear title "CS 162 - Introduction to Computer Science II" which confirms she's in the right document
+- The content is organized in a structured, process-oriented way (course details, requirements, learning outcomes) which aligns with her learning style
+- The document contains comprehensive information including:
+  * Course basics (credits, instructors)
+  * Two fundamental rules
+  * Response times
+  * Course content
+  * Learning outcomes
+  * Course tools
+- This structured presentation of complete information aligns with her comprehensive information processing style
+- The content directly relates to her goal of understanding course requirements, which satisfies her motivation to complete tasks properly
+- The information is presented in a clear, text-based format without requiring technical navigation or risky decisions</t>
         </is>
       </c>
     </row>
@@ -529,14 +538,16 @@
           <t>Answer: NO
 Facets:
 1. Information Processing Style
-2. Motivations
-3. Learning Style
-Why: ABI will not consider reading Modules section as the next step because:
-- Her comprehensive information processing style would lead her to first thoroughly read and understand the entire syllabus document that she just opened
-- The syllabus contains critical foundational information like "Two fundamental rules" and "Response times" that she would want to understand first before moving to Modules
-- Her process-oriented learning style would make her want to complete reading the current document systematically rather than jumping to a different section (Modules)
-- Her motivation to complete tasks properly would make her focus on understanding the basic course requirements and policies first, which are detailed in the syllabus
-- The syllabus itself doesn't explicitly direct her to look at Modules next, and given her preference for clear instructions, she would be hesitant to make that jump without being specifically guided to do so</t>
+2. Computer Self-Efficacy
+3. Attitude toward Risk
+4. None of the Above (Lack of Clear Direction)
+Why: ABI will not consider reading about Modules as the next step because:
+- While "modules" appears in the course content list, there's no clear indication that this should be her next step after reading the syllabus
+- Her comprehensive information processing style means she'll want to fully understand the syllabus first before moving to other sections
+- With her low computer self-efficacy, she won't assume that "modules" in the course content list is related to the Modules section mentioned in the homepage
+- Her risk-averse nature means she won't jump to reading about Modules without explicit instruction that this is the next step
+- There's no clear connection or instruction in the syllabus PDF that directs her to look at Modules next
+- The word "modules" appears only as a bullet point in the course content section without any explanation of its importance or when it should be reviewed</t>
         </is>
       </c>
     </row>
@@ -546,34 +557,37 @@
           <t>Answer: NO
 Facets:
 1. Computer Self-Efficacy
-2. Learning Style
-3. Attitude Toward Risk
-4. Information Processing Style
-Why: ABI will not know what to do at this step because:
-- The PDF document only shows "modules" as a bullet point in the course content section without any clickable links or clear instructions on how to access it
-- Her low computer self-efficacy means she won't feel confident about figuring out how to navigate from a PDF document to the Modules section without explicit guidance
-- Her process-oriented learning style means she expects clear step-by-step instructions, which are not provided here about how to access Modules
-- Her risk-averse attitude means she won't want to experiment or guess how to access Modules when there's no clear indication
-- Her comprehensive information processing style would make her want clear information about how to access Modules, which isn't provided in the PDF
-- She would likely feel stuck as there's no obvious way to click or interact with the "modules" bullet point in the PDF document</t>
+2. Attitude toward Risk
+3. Learning Style
+4. None of the Above (Lack of Clear Instructions)
+Why: ABI will not know what to do because:
+- There's no clear instruction or indication in the PDF about how to access or navigate to the Modules section
+- Her low computer self-efficacy means she won't be confident about how to get back to the main course page to find the Modules section
+- Her process-oriented learning style requires clear step-by-step instructions, which are not provided about how to access Modules
+- Her risk-averse nature means she won't want to experiment with navigating away from the PDF without clear guidance
+- While "modules" is listed in the course content, there's no explanation of how to access it or what actions she should take to view this content
+- The PDF doesn't provide any navigational cues or links to help her understand how to move from the syllabus to the Modules section
+- Without explicit instructions, she might be unsure if she should finish reading the entire PDF first or switch to looking at Modules</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Answer: YES
+          <t>Answer: NO
 Facets:
 1. Information Processing Style
-2. Learning Style
-3. Computer Self-Efficacy
-Why: ABI will know she's on the right track because:
-- The page shows a clear, hierarchical structure of modules with numbered sections and subsections, which aligns with her process-oriented learning style
-- The content is organized systematically with clear headings and subheadings (Module 1, Module 2, etc.), making it easy for her to process information comprehensively
-- Each module contains specific sections like "Explanation," "Video Demo," and "Assignment" which gives her a clear understanding of what to expect and how to proceed
-- The structured layout with expandable sections (indicated by arrows) provides a familiar and non-threatening interface, supporting her low computer self-efficacy
-- The page clearly shows course progression from start to finish, helping her understand how the course will unfold
-- The content matches what she saw in the syllabus PDF earlier, confirming she's in the right place and making progress in understanding the course structure</t>
+2. Computer Self-Efficacy
+3. None of the Above (Information Overload)
+4. Learning Style
+Why: ABI will struggle to confirm she's on the right track because:
+- The Modules page presents an overwhelming amount of information with multiple collapsed sections, which conflicts with her comprehensive information processing style
+- The page structure with many expandable sections (+/-) doesn't provide clear guidance on where to start or what order to follow, which doesn't align with her process-oriented learning style
+- Her low computer self-efficacy means she might feel overwhelmed by the technical terminology and complex structure of the modules
+- There's no clear overview or introduction explaining how to navigate through the modules or what order to follow
+- The page shows multiple modules with various subsections (Explanations, Video Demo, Assignments) which could be overwhelming without clear guidance on how to proceed
+- The hierarchical structure with many expandable sections requires exploration and tinkering to understand the content organization, which doesn't align with her learning style
+- The amount of information and options presented at once could cause information overload, making it difficult for her to confirm she's taking the right approach</t>
         </is>
       </c>
     </row>
